--- a/results/case1_apos/sensitivity_case1_apos.xlsx
+++ b/results/case1_apos/sensitivity_case1_apos.xlsx
@@ -541,25 +541,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.24%</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-8.54%</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>3.20%</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-8.44%</t>
-        </is>
+      <c r="F2" t="n">
+        <v>0.07565054050629799</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.0453223839375775</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.07487305847323796</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.04485659296012937</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -581,25 +573,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>3.59%</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>-9.46%</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>4.47%</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-11.76%</t>
-        </is>
+      <c r="N2" t="n">
+        <v>0.07913607725568343</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.04741057569043124</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.09851944969294155</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.05902319130067062</v>
       </c>
     </row>
     <row r="3">
@@ -610,83 +594,67 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-77.68%</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>116.52%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.1311599961768527</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-102.54%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>153.81%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.1713362795637717</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-88.10%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>117.46%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.1648168311288974</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-87.01%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>116.01%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.1631229618704487</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-34.38%</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>38.68%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.02589086894795025</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-54.20%</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>60.97%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.04030140652381375</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-58.34%</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>87.51%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.1940003919170497</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-72.55%</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>108.82%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.2415183126923325</v>
       </c>
     </row>
     <row r="4">
@@ -695,24 +663,20 @@
           <t>protection cover</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>63.93%</t>
-        </is>
+      <c r="B4" t="n">
+        <v>-0.06525415658723954</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-72.05%</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>84.40%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.03718009253245899</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-95.11%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -735,24 +699,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
+      <c r="J4" t="n">
+        <v>-0.04350734893991005</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-31.89%</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>47.29%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.02397251851487993</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-50.27%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -782,85 +742,53 @@
           <t>total</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>-13.75%</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>44.47%</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-18.14%</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>58.70%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-84.85%</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>108.92%</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-83.80%</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>107.57%</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-4.38%</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>6.79%</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-6.91%</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>10.70%</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>-54.75%</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>78.05%</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>-68.08%</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>97.05%</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-0.06525415658723954</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1311599961768527</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.03718009253245899</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.1713362795637717</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.07565054050629799</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.2101392150664749</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.07487305847323796</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.2079795548305781</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.04350734893991005</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.02589086894795025</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.02397251851487993</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.04030140652381375</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.07913607725568343</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.2414109676074809</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.09851944969294155</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.3005415039930031</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_apos/sensitivity_case1_apos.xlsx
+++ b/results/case1_apos/sensitivity_case1_apos.xlsx
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.07565054050629799</v>
+        <v>0.08163010260426472</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0453223839375775</v>
+        <v>-0.0489047510610492</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07487305847323796</v>
+        <v>0.08890053887189198</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04485659296012937</v>
+        <v>-0.05326048337584572</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -574,16 +574,16 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.07913607725568343</v>
+        <v>0.07088504170581325</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.04741057569043124</v>
+        <v>-0.04246736446456233</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09851944969294155</v>
+        <v>0.08604987688798575</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.05902319130067062</v>
+        <v>-0.05155264631286947</v>
       </c>
     </row>
     <row r="3">
@@ -592,69 +592,69 @@
           <t>autoclave</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.1311599961768527</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.1713362795637717</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.1648168311288974</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.1631229618704487</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.02589086894795025</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>-0.04030140652381375</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>-0.1940003919170497</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.2415183126923325</v>
+      <c r="B3" t="n">
+        <v>-0.1786780242560228</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.237747242247109</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.2258339885750446</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.2459480343573803</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.1296431198281777</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.1950251936948538</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.1787381030791451</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.2169765495657622</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06525415658723954</v>
+        <v>-0.06914065210276646</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.03718009253245899</v>
+        <v>-0.04012658095357748</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-0.04350734893991005</v>
+        <v>-0.04079158749889654</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>-0.02397251851487993</v>
+        <v>-0.02172147494887016</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -743,52 +743,60 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06525415658723954</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.1311599961768527</v>
+        <v>-0.2478186763587892</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.03718009253245899</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.1713362795637717</v>
+        <v>-0.2778738232006864</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>0.07565054050629799</v>
+        <v>-0.1442038859707799</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2101392150664749</v>
+        <v>-0.0489047510610492</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07487305847323796</v>
+        <v>-0.1570474954854884</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2079795548305781</v>
+        <v>-0.05326048337584572</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04350734893991005</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-0.02589086894795025</v>
+        <v>-0.1704347073270743</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L5" t="n">
-        <v>-0.02397251851487993</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-0.04030140652381375</v>
+        <v>-0.2167466686437239</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N5" t="n">
-        <v>0.07913607725568343</v>
+        <v>-0.1078530613733319</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2414109676074809</v>
+        <v>-0.04246736446456233</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09851944969294155</v>
+        <v>-0.1309266726777764</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.3005415039930031</v>
+        <v>-0.05155264631286947</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_apos/sensitivity_case1_apos.xlsx
+++ b/results/case1_apos/sensitivity_case1_apos.xlsx
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.08163010260426472</v>
+        <v>0.08048526502022345</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0489047510610492</v>
+        <v>-0.04821887666831146</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08890053887189198</v>
+        <v>0.07709524858147233</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05326048337584572</v>
+        <v>-0.04618791131679484</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -574,16 +574,16 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.07088504170581325</v>
+        <v>0.07024050757998204</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.04246736446456233</v>
+        <v>-0.04208122283336829</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08604987688798575</v>
+        <v>0.08044815742597973</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.05155264631286947</v>
+        <v>-0.04819664543741627</v>
       </c>
     </row>
     <row r="3">
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1786780242560228</v>
+        <v>-0.1786780076952966</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.237747242247109</v>
+        <v>-0.2377472384484436</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.2258339885750446</v>
+        <v>-0.2263023341050217</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-0.2459480343573803</v>
+        <v>-0.2167705442481949</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-0.1296431198281777</v>
+        <v>-0.1296431062773964</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>-0.1950251936948538</v>
+        <v>-0.1950251888335841</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>-0.1787381030791451</v>
+        <v>-0.1789428393637182</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>-0.2169765495657622</v>
+        <v>-0.2049475752291806</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06914065210276646</v>
+        <v>-0.06914065599741938</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.04012658095357748</v>
+        <v>-0.04012659081538843</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-0.04079158749889654</v>
+        <v>-0.04079158936176421</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>-0.02172147494887016</v>
+        <v>-0.02172148161266575</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2478186763587892</v>
+        <v>-0.247818663692716</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.2778738232006864</v>
+        <v>-0.2778738292638321</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -759,19 +759,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-0.1442038859707799</v>
+        <v>-0.1458170690847982</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0489047510610492</v>
+        <v>-0.04821887666831146</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1570474954854884</v>
+        <v>-0.1396752956667225</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05326048337584572</v>
+        <v>-0.04618791131679484</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1704347073270743</v>
+        <v>-0.1704346956391606</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>-0.2167466686437239</v>
+        <v>-0.2167466704462498</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>-0.1078530613733319</v>
+        <v>-0.1087023317837361</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04246736446456233</v>
+        <v>-0.04208122283336829</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1309266726777764</v>
+        <v>-0.1244994178032009</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.05155264631286947</v>
+        <v>-0.04819664543741627</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_apos/sensitivity_case1_apos.xlsx
+++ b/results/case1_apos/sensitivity_case1_apos.xlsx
@@ -548,10 +548,10 @@
         <v>-0.04821887666831146</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07709524858147233</v>
+        <v>0.095404551513545</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04618791131679484</v>
+        <v>-0.0571570498260925</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         <v>-0.04208122283336829</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08044815742597973</v>
+        <v>0.09204631934030952</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.04819664543741627</v>
+        <v>-0.05514512648901806</v>
       </c>
     </row>
     <row r="3">
@@ -592,69 +592,69 @@
           <t>autoclave</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>-0.1786780076952966</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>-0.2377472384484436</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>-0.2263023341050217</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.2167705442481949</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.2682512468131034</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>-0.1296431062773964</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>-0.1950251888335841</v>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>-0.1789428393637182</v>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>-0.2049475752291806</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.2344947424672174</v>
       </c>
     </row>
     <row r="4">
@@ -743,60 +743,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.247818663692716</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-0.06914065599741938</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1786780076952966</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2778738292638321</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-0.04012659081538843</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.2377472384484436</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1458170690847982</v>
+        <v>0.08048526502022345</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04821887666831146</v>
+        <v>-0.2745212107733331</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1396752956667225</v>
+        <v>0.095404551513545</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04618791131679484</v>
+        <v>-0.3254082966391959</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1704346956391606</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-0.04079158936176421</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.1296431062773964</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.2167466704462498</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-0.02172148161266575</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.1950251888335841</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1087023317837361</v>
+        <v>0.07024050757998204</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04208122283336829</v>
+        <v>-0.2210240621970865</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1244994178032009</v>
+        <v>0.09204631934030952</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.04819664543741627</v>
+        <v>-0.2896398689562354</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_apos/sensitivity_case1_apos.xlsx
+++ b/results/case1_apos/sensitivity_case1_apos.xlsx
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.08048526502022345</v>
+        <v>0.07952351687569367</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.04821887666831146</v>
+        <v>-0.04764269151000419</v>
       </c>
       <c r="H2" t="n">
-        <v>0.095404551513545</v>
+        <v>0.0968438940083818</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0571570498260925</v>
+        <v>-0.05801936267583651</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -574,16 +574,16 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.07024050757998204</v>
+        <v>0.06934431670252549</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.04208122283336829</v>
+        <v>-0.04154431315952312</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09204631934030952</v>
+        <v>0.09239309358484175</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.05514512648901806</v>
+        <v>-0.05535287960413317</v>
       </c>
     </row>
     <row r="3">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.1786780076952966</v>
+        <v>-0.1786780085679951</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.2377472384484436</v>
+        <v>-0.2377472387434056</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-0.2263023341050217</v>
+        <v>-0.2266957131217734</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>-0.2682512468131034</v>
+        <v>-0.2760704817423613</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-0.1296431062773964</v>
+        <v>-0.1296431065971341</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-0.1950251888335841</v>
+        <v>-0.1950251882594646</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>-0.1789428393637182</v>
+        <v>-0.1792274214223153</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>-0.2344947424672174</v>
+        <v>-0.2387993235477179</v>
       </c>
     </row>
     <row r="4">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06914065599741938</v>
+        <v>-0.06914065579095116</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.04012659081538843</v>
+        <v>-0.04012659074989664</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-0.04079158936176421</v>
+        <v>-0.04079158931949136</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>-0.02172148161266575</v>
+        <v>-0.02172148173988305</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -743,52 +743,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06914065599741938</v>
+        <v>-0.06914065579095116</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1786780076952966</v>
+        <v>-0.1786780085679951</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.04012659081538843</v>
+        <v>-0.04012659074989664</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2377472384484436</v>
+        <v>-0.2377472387434056</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08048526502022345</v>
+        <v>0.07952351687569367</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2745212107733331</v>
+        <v>-0.2743384046317776</v>
       </c>
       <c r="H5" t="n">
-        <v>0.095404551513545</v>
+        <v>0.0968438940083818</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3254082966391959</v>
+        <v>-0.3340898444181978</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04079158936176421</v>
+        <v>-0.04079158931949136</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1296431062773964</v>
+        <v>-0.1296431065971341</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.02172148161266575</v>
+        <v>-0.02172148173988305</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1950251888335841</v>
+        <v>-0.1950251882594646</v>
       </c>
       <c r="N5" t="n">
-        <v>0.07024050757998204</v>
+        <v>0.06934431670252549</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2210240621970865</v>
+        <v>-0.2207717345818384</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09204631934030952</v>
+        <v>0.09239309358484175</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2896398689562354</v>
+        <v>-0.2941522031518511</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_apos/sensitivity_case1_apos.xlsx
+++ b/results/case1_apos/sensitivity_case1_apos.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>H2S - lower%</t>
+          <t>H2I - lower%</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>H2S - upper%</t>
+          <t>H2I - upper%</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,12 +476,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>H4S - lower%</t>
+          <t>H4I - lower%</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>H4S - upper%</t>
+          <t>H4I - upper%</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -663,22 +663,22 @@
           <t>protection cover</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>-0.06914065579095116</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>-0.04012659074989664</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>-</t>
@@ -699,21 +699,21 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>-0.04079158931949136</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>-0.02172148173988305</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -742,17 +742,21 @@
           <t>total</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.06914065579095116</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1786780085679951</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.04012659074989664</v>
+        <v>-0.2478186643589462</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.2377472387434056</v>
+        <v>-0.2778738294933022</v>
       </c>
       <c r="F5" t="n">
         <v>0.07952351687569367</v>
@@ -766,17 +770,21 @@
       <c r="I5" t="n">
         <v>-0.3340898444181978</v>
       </c>
-      <c r="J5" t="n">
-        <v>-0.04079158931949136</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>-0.1296431065971341</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-0.02172148173988305</v>
+        <v>-0.1704346959166255</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M5" t="n">
-        <v>-0.1950251882594646</v>
+        <v>-0.2167466699993477</v>
       </c>
       <c r="N5" t="n">
         <v>0.06934431670252549</v>
